--- a/user-resource-description.xlsx
+++ b/user-resource-description.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1020" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>/users</t>
   </si>
   <si>
@@ -91,6 +88,148 @@
   </si>
   <si>
     <t>Delete a user specified by its id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Issue Types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+(id, name, description)</t>
+    </r>
+  </si>
+  <si>
+    <t>/issue_types</t>
+  </si>
+  <si>
+    <t>Retrieve a list of issue types</t>
+  </si>
+  <si>
+    <t>/issue_types/{id}</t>
+  </si>
+  <si>
+    <t>Create a new issue type</t>
+  </si>
+  <si>
+    <t>Retrieve a issue type by its id</t>
+  </si>
+  <si>
+    <t>Update a issue type specified by its id</t>
+  </si>
+  <si>
+    <t>Delete a issue type specified by its id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+(id, author, date, action_type)</t>
+    </r>
+  </si>
+  <si>
+    <t>/actions</t>
+  </si>
+  <si>
+    <t>Retrieve a list of actions</t>
+  </si>
+  <si>
+    <t>/issues</t>
+  </si>
+  <si>
+    <t>/issues/{id}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Issues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+(id, author, type, description, place, status[…], comments[author, date, content], tags[…], actions[…])</t>
+    </r>
+  </si>
+  <si>
+    <t>Retrieve a list of issues</t>
+  </si>
+  <si>
+    <t>Create a new issue</t>
+  </si>
+  <si>
+    <t>Update an issue specified by its id</t>
+  </si>
+  <si>
+    <t>Retrieve an issue by its id</t>
+  </si>
+  <si>
+    <t>/issues/{id}/actions</t>
+  </si>
+  <si>
+    <t>Retrieve an action on an issue by its id</t>
+  </si>
+  <si>
+    <t>Create a new action on an issue specified by its id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+(id, roles, firstName, lastName, mail)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -147,15 +286,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -250,15 +395,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,47 +442,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -637,16 +834,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:F1048576"/>
+  <dimension ref="A2:F1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
@@ -656,151 +850,472 @@
     <col min="6" max="6" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" ht="29" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+    <row r="3" spans="1:6" ht="29" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="29" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="29" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="29" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="4" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" ht="29" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="29" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="29" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="33" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="4" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" ht="29" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="29" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="33" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="33" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="4" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" ht="29" customHeight="1">
+      <c r="A24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="33" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="F24" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="29" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="29" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29" customHeight="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="33" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1048576" spans="5:5">
-      <c r="E1048576" s="1"/>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="29" customHeight="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="29" customHeight="1">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1048573" spans="5:5" ht="29" customHeight="1">
+      <c r="E1048573" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="25">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -814,10 +1329,10 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="77"/>
     </ext>
   </extLst>
 </worksheet>
